--- a/Descargas/R15_Juzgado De Letras Y Garantia De Maria Elena_Garantia_Ingresos Causas Por Materia_2020-Mayo.xlsx
+++ b/Descargas/R15_Juzgado De Letras Y Garantia De Maria Elena_Garantia_Ingresos Causas Por Materia_2020-Mayo.xlsx
@@ -347,7 +347,7 @@
     <row r="15">
       <c t="inlineStr" r="A15">
         <is>
-          <t xml:space="preserve">Riña Pública (496 Nº 10 Código Penal).</t>
+          <t xml:space="preserve">Receptacion. Art. 456 Bis A.</t>
         </is>
       </c>
       <c r="B15" s="65">
@@ -357,30 +357,40 @@
     <row r="16">
       <c t="inlineStr" r="A16">
         <is>
-          <t xml:space="preserve">Robo En Lugar No Habitado.</t>
+          <t xml:space="preserve">Riña Pública (496 Nº 10 Código Penal).</t>
         </is>
       </c>
       <c r="B16" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c t="inlineStr" r="A17">
         <is>
-          <t xml:space="preserve">Trafico De Pequeñas Cantidades (Art. 4).</t>
+          <t xml:space="preserve">Robo En Lugar No Habitado.</t>
         </is>
       </c>
       <c r="B17" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c t="inlineStr" r="A18">
         <is>
+          <t xml:space="preserve">Trafico De Pequeñas Cantidades (Art. 4).</t>
+        </is>
+      </c>
+      <c r="B18" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c t="inlineStr" r="A19">
+        <is>
           <t xml:space="preserve">Ultraje Publico Buenas Costumbres Por Medio Comunic. Social.</t>
         </is>
       </c>
-      <c r="B18" s="65">
+      <c r="B19" s="65">
         <v>1</v>
       </c>
     </row>
